--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\GitHub\HRCentralDataToSharePoint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\HRCentralDataToSharePoint\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75062891-02B3-46CF-8D49-50F29F11E18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998AC940-E171-4999-AB8A-1A8CAC00681A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -441,65 +441,72 @@
   <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
       <c r="S1" t="s">
         <v>18</v>
